--- a/currentbuild/StructureDefinition-lmdi-encounter-institusjonsopphold.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-encounter-institusjonsopphold.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Lmdi-Institusjonsopphold</t>
+    <t>Institusjonsopphold</t>
   </si>
   <si>
     <t>Status</t>

--- a/currentbuild/StructureDefinition-lmdi-encounter-institusjonsopphold.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-encounter-institusjonsopphold.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.1</t>
+    <t>0.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-encounter-institusjonsopphold.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-encounter-institusjonsopphold.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-encounter-institusjonsopphold.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-encounter-institusjonsopphold.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.5.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-encounter-institusjonsopphold.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-encounter-institusjonsopphold.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.0</t>
+    <t>0.5.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23</t>
+    <t>2024-05-30</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>TODO</t>
+    <t>Beskrivelse av pasientens opphold i institusjon.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -934,7 +934,7 @@
     <t>Encounter.period</t>
   </si>
   <si>
-    <t>The start and end time of the encounter</t>
+    <t>Periode for pasientens opphold i institusjon.</t>
   </si>
   <si>
     <t>The start and end time of the encounter.</t>

--- a/currentbuild/StructureDefinition-lmdi-encounter-institusjonsopphold.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-encounter-institusjonsopphold.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Institusjonsopphold</t>
+    <t>Institusjonsopphold A</t>
   </si>
   <si>
     <t>Status</t>

--- a/currentbuild/StructureDefinition-lmdi-encounter-institusjonsopphold.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-encounter-institusjonsopphold.xlsx
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Beskrivelse av pasientens opphold i institusjon.</t>
+    <t>Beskrivelse av pasientens opphold i institusjon - bruker Encounter.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/currentbuild/StructureDefinition-lmdi-encounter-institusjonsopphold.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-encounter-institusjonsopphold.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.1</t>
+    <t>0.5.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-encounter-institusjonsopphold.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-encounter-institusjonsopphold.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.2</t>
+    <t>0.5.3</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-encounter-institusjonsopphold.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-encounter-institusjonsopphold.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.3</t>
+    <t>0.6.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-encounter-institusjonsopphold.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-encounter-institusjonsopphold.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.0</t>
+    <t>0.6.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-encounter-institusjonsopphold.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-encounter-institusjonsopphold.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.1</t>
+    <t>0.6.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Institusjonsopphold A</t>
+    <t>På vei ut (Institusjonsopphold A)</t>
   </si>
   <si>
     <t>Status</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-30</t>
+    <t>2024-06-06</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -87,7 +87,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Beskrivelse av pasientens opphold i institusjon - bruker Encounter.</t>
+    <t>Beskrivelse av pasientens opphold i institusjon - bruker Encounter (Mulig bruke denne for spesialisthelsetjenesten)</t>
   </si>
   <si>
     <t>Purpose</t>
